--- a/biology/Botanique/Juncus_filiformis/Juncus_filiformis.xlsx
+++ b/biology/Botanique/Juncus_filiformis/Juncus_filiformis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Juncus filiformis, le Jonc filiforme, est une espèce de plante herbacée vivace de la famille des Juncaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante haute de 15–40 cm, aux tiges aphylles (sans feuilles), minces, d'environ un millimètre de diamètre, prolongées d'une bractée terminale. Fleurs groupées par 3 à 10, insérées environ au milieu de la tige, 6 étamines, tépales brunâtres longs d'environ 3 mm. Fruits : capsules subglobuleuses à ovoïdes, égalant environ la longueur des tépales.
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurasie, Amérique du Nord. En France: régions montagneuses (Vosges, Alpes, Cévennes, Forez, Auvergne, Pyrénées).
 </t>
@@ -573,7 +589,9 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">De juin à aout.
 </t>
@@ -604,7 +622,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Marais et prés humides des montagnes.
 Sur les autres projets Wikimedia :
